--- a/机制构想20220621.xlsx
+++ b/机制构想20220621.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{11AF2C89-4DBE-4D1F-BC54-570F81D7BF6F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B5C796-5A07-4536-8135-3A6D1C7848D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通用经济基础" sheetId="1" r:id="rId1"/>
     <sheet name="势力设定" sheetId="2" r:id="rId2"/>
     <sheet name="生产经验机制" sheetId="6" r:id="rId3"/>
     <sheet name="补充设定" sheetId="5" r:id="rId4"/>
+    <sheet name="人口增长曲线" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="257">
   <si>
     <t>规模效益：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1004,6 +1005,30 @@
   <si>
     <t>如果你退回了农业文明，这次灾难将宣告你的死刑</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版的话，在无修正的情况下：</t>
+  </si>
+  <si>
+    <t>月出生率：</t>
+  </si>
+  <si>
+    <t>0-8sol:维持4.2‰不变</t>
+  </si>
+  <si>
+    <t>8-40sol:从4.2‰降到1‰，40sol之后出生率不变 </t>
+  </si>
+  <si>
+    <t>月死亡率</t>
+  </si>
+  <si>
+    <t>0-8sol:从7‰降到4.2‰，8sol时出生率和死亡率相等</t>
+  </si>
+  <si>
+    <t>8-20sol:从4.2%降到1.5‰，20sol时人口净增长最大</t>
+  </si>
+  <si>
+    <t>20-40sol:从1.5‰降到0.5‰，40sol之后死亡率不变</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1139,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,12 +1432,12 @@
       <selection activeCell="L81" sqref="L81:M81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1426,17 +1451,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1472,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>169</v>
       </c>
@@ -1458,7 +1483,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1469,12 +1494,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1485,12 +1510,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1523,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1509,7 +1534,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -1517,7 +1542,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,12 +1553,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1544,7 +1569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -1552,12 +1577,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -1565,7 +1590,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1573,22 +1598,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G24" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G25" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1601,7 +1626,7 @@
       </c>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1617,12 +1642,12 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1630,17 +1655,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
@@ -1651,22 +1676,22 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -1677,7 +1702,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>40</v>
       </c>
@@ -1685,7 +1710,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1693,7 +1718,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>43</v>
       </c>
@@ -1701,7 +1726,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
@@ -1717,7 +1742,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>53</v>
       </c>
@@ -1727,7 +1752,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>54</v>
       </c>
@@ -1737,7 +1762,7 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
         <v>41</v>
       </c>
@@ -1753,7 +1778,7 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -1763,7 +1788,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>46</v>
       </c>
@@ -1773,7 +1798,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
@@ -1786,7 +1811,7 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>49</v>
       </c>
@@ -1796,12 +1821,12 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
         <v>50</v>
       </c>
@@ -1809,42 +1834,42 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C52" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C53" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C54" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C55" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B57" s="3" t="s">
         <v>60</v>
       </c>
@@ -1855,37 +1880,37 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B64" s="2" t="s">
         <v>67</v>
       </c>
@@ -1896,22 +1921,22 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" s="2" t="s">
         <v>73</v>
       </c>
@@ -1922,22 +1947,22 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
         <v>77</v>
       </c>
@@ -1945,12 +1970,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>173</v>
       </c>
@@ -1958,7 +1983,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>175</v>
       </c>
@@ -1966,12 +1991,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" s="2" t="s">
         <v>245</v>
       </c>
@@ -1980,12 +2005,12 @@
       </c>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
         <v>248</v>
       </c>
@@ -2005,29 +2030,29 @@
       <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>86</v>
       </c>
@@ -2035,22 +2060,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -2058,12 +2083,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>99</v>
       </c>
@@ -2071,12 +2096,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>109</v>
       </c>
@@ -2084,17 +2109,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>106</v>
       </c>
@@ -2102,22 +2127,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>88</v>
       </c>
@@ -2125,22 +2150,22 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>95</v>
       </c>
@@ -2148,12 +2173,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>100</v>
       </c>
@@ -2161,12 +2186,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>110</v>
       </c>
@@ -2174,17 +2199,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>117</v>
       </c>
@@ -2192,27 +2217,27 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>122</v>
       </c>
@@ -2220,22 +2245,22 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>126</v>
       </c>
@@ -2243,22 +2268,22 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>131</v>
       </c>
@@ -2266,17 +2291,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>135</v>
       </c>
@@ -2284,22 +2309,22 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>139</v>
       </c>
@@ -2307,17 +2332,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>143</v>
       </c>
@@ -2325,17 +2350,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>147</v>
       </c>
@@ -2343,22 +2368,22 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>152</v>
       </c>
@@ -2366,17 +2391,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>155</v>
       </c>
@@ -2384,12 +2409,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>157</v>
       </c>
@@ -2397,17 +2422,17 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>159</v>
       </c>
@@ -2415,7 +2440,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
         <v>165</v>
       </c>
@@ -2431,44 +2456,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD5EFBF-73FB-4E0C-AC8C-BD7FCD5FB6ED}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>239</v>
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>242</v>
       </c>
@@ -2488,131 +2513,188 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BEBED4-FE25-4469-98C6-DA85B0120032}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/机制构想20220621.xlsx
+++ b/机制构想20220621.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B5C796-5A07-4536-8135-3A6D1C7848D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74021018-1D5E-434E-AB6A-D19C48561E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,17 +14,27 @@
     <sheet name="补充设定" sheetId="5" r:id="rId4"/>
     <sheet name="人口增长曲线" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="260">
   <si>
     <t>规模效益：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1029,6 +1039,18 @@
   </si>
   <si>
     <t>20-40sol:从1.5‰降到0.5‰，40sol之后死亡率不变</t>
+  </si>
+  <si>
+    <t>大秦东出的死亡率曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1129,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1141,6 +1163,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1161,6 +1184,1360 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>大秦东出的死亡率曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30949300087489062"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>人口增长曲线!$C$12:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>大秦东出的死亡率曲线</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>死亡率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>人口增长曲线!$B$14:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>人口增长曲线!$C$14:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8333333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6666666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1666666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6666666666666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1666666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8600000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.84E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.72E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.66E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.54E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.2799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.26E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47AC-424C-9AB9-9746397BB6B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1985773008"/>
+        <c:axId val="1985769680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1985773008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1985769680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1985769680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1985773008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>658585</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A9B4D3-A153-76C8-C164-779621040928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2649,57 +4026,767 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BEBED4-FE25-4469-98C6-DA85B0120032}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>A$14+B14*(A$22-A$14)/(B$22-B$14)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C21" si="0">A$14+B15*(A$22-A$14)/(B$22-B$14)</f>
+        <v>9.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.04</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <f>A$22+(B22-B$22)*(A$34-A$22)/(B$34-B$22)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <f>A$22+(B23-B$22)*(A$34-A$22)/(B$34-B$22)</f>
+        <v>3.8333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C23:C33" si="1">A$22+(B24-B$22)*(A$34-A$22)/(B$34-B$22)</f>
+        <v>3.6666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666669E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>2.8333333333333335E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <f>A$22+(B33-B$22)*(A$34-A$22)/(B$34-B$22)</f>
+        <v>2.1666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>0.02</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34" s="11">
+        <f>A$34+(B34-B$34)*(A$74-A$34)/(B$74-B$34)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>21</v>
+      </c>
+      <c r="C35" s="11">
+        <f t="shared" ref="C35:C74" si="2">A$34+(B35-B$34)*(A$74-A$34)/(B$74-B$34)</f>
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" si="2"/>
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" si="2"/>
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" si="2"/>
+        <v>1.9200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" si="2"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>26</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="shared" si="2"/>
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>27</v>
+      </c>
+      <c r="C41" s="11">
+        <f t="shared" si="2"/>
+        <v>1.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>28</v>
+      </c>
+      <c r="C42" s="11">
+        <f t="shared" si="2"/>
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>29</v>
+      </c>
+      <c r="C43" s="11">
+        <f t="shared" si="2"/>
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44" s="11">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>31</v>
+      </c>
+      <c r="C45" s="11">
+        <f t="shared" si="2"/>
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>32</v>
+      </c>
+      <c r="C46" s="11">
+        <f t="shared" si="2"/>
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>33</v>
+      </c>
+      <c r="C47" s="11">
+        <f t="shared" si="2"/>
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>34</v>
+      </c>
+      <c r="C48" s="11">
+        <f t="shared" si="2"/>
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>35</v>
+      </c>
+      <c r="C49" s="11">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>36</v>
+      </c>
+      <c r="C50" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>37</v>
+      </c>
+      <c r="C51" s="11">
+        <f t="shared" si="2"/>
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>38</v>
+      </c>
+      <c r="C52" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>39</v>
+      </c>
+      <c r="C53" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>41</v>
+      </c>
+      <c r="C55" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>42</v>
+      </c>
+      <c r="C56" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>43</v>
+      </c>
+      <c r="C57" s="11">
+        <f t="shared" si="2"/>
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>44</v>
+      </c>
+      <c r="C58" s="11">
+        <f t="shared" si="2"/>
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>45</v>
+      </c>
+      <c r="C59" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>46</v>
+      </c>
+      <c r="C60" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>47</v>
+      </c>
+      <c r="C61" s="11">
+        <f t="shared" si="2"/>
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>48</v>
+      </c>
+      <c r="C62" s="11">
+        <f t="shared" si="2"/>
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>49</v>
+      </c>
+      <c r="C63" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>50</v>
+      </c>
+      <c r="C64" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>51</v>
+      </c>
+      <c r="C65" s="11">
+        <f t="shared" si="2"/>
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>52</v>
+      </c>
+      <c r="C66" s="11">
+        <f t="shared" si="2"/>
+        <v>1.3600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>53</v>
+      </c>
+      <c r="C67" s="11">
+        <f t="shared" si="2"/>
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>54</v>
+      </c>
+      <c r="C68" s="11">
+        <f t="shared" si="2"/>
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>55</v>
+      </c>
+      <c r="C69" s="11">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>56</v>
+      </c>
+      <c r="C70" s="11">
+        <f t="shared" si="2"/>
+        <v>1.2799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>57</v>
+      </c>
+      <c r="C71" s="11">
+        <f t="shared" si="2"/>
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>58</v>
+      </c>
+      <c r="C72" s="11">
+        <f t="shared" si="2"/>
+        <v>1.2400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>59</v>
+      </c>
+      <c r="C73" s="11">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B74">
+        <v>60</v>
+      </c>
+      <c r="C74" s="11">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>61</v>
+      </c>
+      <c r="C75" s="11">
+        <f>C74</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>62</v>
+      </c>
+      <c r="C76" s="11">
+        <f t="shared" ref="C76:C89" si="3">C75</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>63</v>
+      </c>
+      <c r="C77" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>64</v>
+      </c>
+      <c r="C78" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>65</v>
+      </c>
+      <c r="C79" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>66</v>
+      </c>
+      <c r="C80" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>67</v>
+      </c>
+      <c r="C81" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>68</v>
+      </c>
+      <c r="C82" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>69</v>
+      </c>
+      <c r="C83" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>70</v>
+      </c>
+      <c r="C84" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>71</v>
+      </c>
+      <c r="C85" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>72</v>
+      </c>
+      <c r="C86" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>73</v>
+      </c>
+      <c r="C87" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>74</v>
+      </c>
+      <c r="C88" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>75</v>
+      </c>
+      <c r="C89" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/机制构想20220621.xlsx
+++ b/机制构想20220621.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74021018-1D5E-434E-AB6A-D19C48561E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7653A812-F437-49B2-9676-761B4E46D307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,8 @@
     <sheet name="势力设定" sheetId="2" r:id="rId2"/>
     <sheet name="生产经验机制" sheetId="6" r:id="rId3"/>
     <sheet name="补充设定" sheetId="5" r:id="rId4"/>
-    <sheet name="人口增长曲线" sheetId="7" r:id="rId5"/>
+    <sheet name="生产链" sheetId="8" r:id="rId5"/>
+    <sheet name="人口增长曲线" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="439">
   <si>
     <t>规模效益：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1050,6 +1051,710 @@
   </si>
   <si>
     <t>死亡率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础产物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田间林地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樟与楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑与柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃与梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集约化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酿造厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果→药酒（健康）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷物→烈酒（满足感）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉麻田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节约大量人力，方便迅速砍完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍完之后变成林场用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窑炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加钢强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加铜强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢+能量→重型机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电器厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施肥提高产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节约人力，产出肥料取代木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼油厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分馏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油→烯烃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油→燃油（取暖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火电站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（农业）</t>
+  </si>
+  <si>
+    <t>（农业资源）</t>
+  </si>
+  <si>
+    <t>（资源）</t>
+  </si>
+  <si>
+    <t>→盐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→铜矿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→铁矿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→煤炭（取暖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→石油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化纤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烯烃→药酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致幻剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→大量木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制炭厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材→煤炭（低效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈酒→烯烃（低效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加大量电力强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固碳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（资源）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→电力+蓄电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硅+蓄电→电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铀→电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果+盐→酱料（精食）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉+盐→酱料（精食）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→谷物（粗食）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→木材+水果（粗食）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→木材+水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水培农场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烯烃→木板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木板→工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锯木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材→家具（日用品，礼器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材→木板（日用品，建材）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药酒→医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铀矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→铀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→麻醉剂（满足感）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烯烃→麻醉剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力→水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力→谷物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麻萃取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐+铁矿石+热量→肥料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤或燃油→电力+蓄电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热量→陶瓷（日用品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热量+肥料→硅（半导体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦角菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力→麻醉剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：热量指 木材（低效）、煤、燃油、电力，通过“能量供应”生产方式切换。Pop消耗它来供暖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农闲季节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打零工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭木工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭纺织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材→木板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→抚育+谷物/肉/布料/木材/水果</t>
+  </si>
+  <si>
+    <t>→少量肉+布料</t>
+  </si>
+  <si>
+    <t>谷物→肉+布料+肥料</t>
+  </si>
+  <si>
+    <t>→木材+布料</t>
+  </si>
+  <si>
+    <t>→布料</t>
+  </si>
+  <si>
+    <t>布料→华服（服装，礼器）</t>
+  </si>
+  <si>
+    <t>布料→衣服（服装）</t>
+  </si>
+  <si>
+    <t>烯烃→布料</t>
+  </si>
+  <si>
+    <t>布料→衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳工营地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→劳务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取代城市中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热量+煤炭+铁矿→钢（建材）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热量+煤炭+铜矿→铜器（礼器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢+能量+铜→电器（日用品，礼器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能设备厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型机械用于机械化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电器用于电气化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能设备用于自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技工+20% 吞吐+100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技工+20% 工程师+5% 吞吐+150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务-50% 重型机械+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技工+20% 工程师+10% 吞吐+200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务-75% 重型机械+20% 电器+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务-100% 重型机械+20% 智能设备+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务→运力+基建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械化：铁路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气化：电气铁路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化：磁悬浮铁路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必定机械化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必定电气化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→少量劳务（服务，工业）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具→劳务（服务，工业）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木屑利用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥料→纸（文化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸与颜料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电器+硅+大量电力→智能设备（日用品，礼器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸+铁矿石+铜矿石→艺术品（艺术，满足感）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能设备→艺术品（艺术，满足感）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子创作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半国营</t>
+  </si>
+  <si>
+    <t>半国营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造船厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木板→帆船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型机械→轮船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶→运力+基建+商船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现代化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶→肉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,7 +1856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1163,7 +1868,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3886,7 +4590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B9CE52-71E1-43BA-9AC6-F168B51624A8}">
   <dimension ref="B2:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -4025,10 +4729,778 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEB8094-8640-4AB4-ABE4-0779C618BE50}">
+  <dimension ref="A1:Q64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="9.640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" t="s">
+        <v>316</v>
+      </c>
+      <c r="K11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" t="s">
+        <v>348</v>
+      </c>
+      <c r="G12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" t="s">
+        <v>383</v>
+      </c>
+      <c r="K12" t="s">
+        <v>276</v>
+      </c>
+      <c r="L12" t="s">
+        <v>279</v>
+      </c>
+      <c r="O12" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" t="s">
+        <v>384</v>
+      </c>
+      <c r="K13" t="s">
+        <v>277</v>
+      </c>
+      <c r="L13" t="s">
+        <v>278</v>
+      </c>
+      <c r="O13" t="s">
+        <v>365</v>
+      </c>
+      <c r="P13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" t="s">
+        <v>385</v>
+      </c>
+      <c r="K14" t="s">
+        <v>274</v>
+      </c>
+      <c r="L14" t="s">
+        <v>346</v>
+      </c>
+      <c r="O14" t="s">
+        <v>373</v>
+      </c>
+      <c r="P14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" t="s">
+        <v>349</v>
+      </c>
+      <c r="K15" t="s">
+        <v>275</v>
+      </c>
+      <c r="L15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D19" t="s">
+        <v>363</v>
+      </c>
+      <c r="G19" t="s">
+        <v>270</v>
+      </c>
+      <c r="H19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" t="s">
+        <v>287</v>
+      </c>
+      <c r="G21" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" t="s">
+        <v>318</v>
+      </c>
+      <c r="K21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H22" t="s">
+        <v>320</v>
+      </c>
+      <c r="K22" t="s">
+        <v>355</v>
+      </c>
+      <c r="L22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" t="s">
+        <v>285</v>
+      </c>
+      <c r="G23" t="s">
+        <v>264</v>
+      </c>
+      <c r="H23" t="s">
+        <v>385</v>
+      </c>
+      <c r="K23" t="s">
+        <v>356</v>
+      </c>
+      <c r="L23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" t="s">
+        <v>350</v>
+      </c>
+      <c r="K24" t="s">
+        <v>422</v>
+      </c>
+      <c r="L24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" t="s">
+        <v>306</v>
+      </c>
+      <c r="K26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" t="s">
+        <v>321</v>
+      </c>
+      <c r="G27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H27" t="s">
+        <v>395</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" t="s">
+        <v>318</v>
+      </c>
+      <c r="G28" t="s">
+        <v>289</v>
+      </c>
+      <c r="H28" t="s">
+        <v>394</v>
+      </c>
+      <c r="K28" t="s">
+        <v>293</v>
+      </c>
+      <c r="L28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" t="s">
+        <v>299</v>
+      </c>
+      <c r="G31" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" t="s">
+        <v>302</v>
+      </c>
+      <c r="M31" t="s">
+        <v>416</v>
+      </c>
+      <c r="O31" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" t="s">
+        <v>301</v>
+      </c>
+      <c r="K32" t="s">
+        <v>397</v>
+      </c>
+      <c r="O32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>391</v>
+      </c>
+      <c r="D34" t="s">
+        <v>393</v>
+      </c>
+      <c r="G34" t="s">
+        <v>399</v>
+      </c>
+      <c r="K34" t="s">
+        <v>400</v>
+      </c>
+      <c r="O34" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" t="s">
+        <v>418</v>
+      </c>
+      <c r="G35" t="s">
+        <v>404</v>
+      </c>
+      <c r="K35" t="s">
+        <v>406</v>
+      </c>
+      <c r="O35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>415</v>
+      </c>
+      <c r="D36" t="s">
+        <v>419</v>
+      </c>
+      <c r="G36" t="s">
+        <v>402</v>
+      </c>
+      <c r="K36" t="s">
+        <v>403</v>
+      </c>
+      <c r="O36" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D38" t="s">
+        <v>431</v>
+      </c>
+      <c r="G38" t="s">
+        <v>433</v>
+      </c>
+      <c r="K38" t="s">
+        <v>414</v>
+      </c>
+      <c r="L38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" t="s">
+        <v>410</v>
+      </c>
+      <c r="G39" t="s">
+        <v>294</v>
+      </c>
+      <c r="H39" t="s">
+        <v>434</v>
+      </c>
+      <c r="K39" t="s">
+        <v>294</v>
+      </c>
+      <c r="L39" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>411</v>
+      </c>
+      <c r="G40" t="s">
+        <v>437</v>
+      </c>
+      <c r="H40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C44" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" t="s">
+        <v>318</v>
+      </c>
+      <c r="G44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D45" t="s">
+        <v>324</v>
+      </c>
+      <c r="G45" t="s">
+        <v>326</v>
+      </c>
+      <c r="H45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G46" t="s">
+        <v>327</v>
+      </c>
+      <c r="H46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" t="s">
+        <v>328</v>
+      </c>
+      <c r="K48" t="s">
+        <v>359</v>
+      </c>
+      <c r="L48" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49" t="s">
+        <v>314</v>
+      </c>
+      <c r="G49" t="s">
+        <v>329</v>
+      </c>
+      <c r="H49" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" t="s">
+        <v>261</v>
+      </c>
+      <c r="L49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" t="s">
+        <v>331</v>
+      </c>
+      <c r="H50" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" t="s">
+        <v>304</v>
+      </c>
+      <c r="D52" t="s">
+        <v>318</v>
+      </c>
+      <c r="G52" t="s">
+        <v>315</v>
+      </c>
+      <c r="K52" t="s">
+        <v>342</v>
+      </c>
+      <c r="O52" t="s">
+        <v>361</v>
+      </c>
+      <c r="P52" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" t="s">
+        <v>323</v>
+      </c>
+      <c r="G53" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" t="s">
+        <v>370</v>
+      </c>
+      <c r="K53" t="s">
+        <v>261</v>
+      </c>
+      <c r="L53" t="s">
+        <v>343</v>
+      </c>
+      <c r="O53" t="s">
+        <v>261</v>
+      </c>
+      <c r="P53" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" t="s">
+        <v>339</v>
+      </c>
+      <c r="H55" t="s">
+        <v>340</v>
+      </c>
+      <c r="O55" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>294</v>
+      </c>
+      <c r="D56" t="s">
+        <v>334</v>
+      </c>
+      <c r="G56" t="s">
+        <v>261</v>
+      </c>
+      <c r="H56" t="s">
+        <v>341</v>
+      </c>
+      <c r="O56" t="s">
+        <v>261</v>
+      </c>
+      <c r="P56" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>335</v>
+      </c>
+      <c r="D57" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>338</v>
+      </c>
+      <c r="D58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>420</v>
+      </c>
+      <c r="C60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>425</v>
+      </c>
+      <c r="D61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>429</v>
+      </c>
+      <c r="D62" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BEBED4-FE25-4469-98C6-DA85B0120032}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
@@ -4188,7 +5660,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C23:C33" si="1">A$22+(B24-B$22)*(A$34-A$22)/(B$34-B$22)</f>
+        <f t="shared" ref="C24:C32" si="1">A$22+(B24-B$22)*(A$34-A$22)/(B$34-B$22)</f>
         <v>3.6666666666666667E-2</v>
       </c>
     </row>
@@ -4280,7 +5752,7 @@
       <c r="B34">
         <v>20</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34">
         <f>A$34+(B34-B$34)*(A$74-A$34)/(B$74-B$34)</f>
         <v>0.02</v>
       </c>
@@ -4289,7 +5761,7 @@
       <c r="B35">
         <v>21</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35">
         <f t="shared" ref="C35:C74" si="2">A$34+(B35-B$34)*(A$74-A$34)/(B$74-B$34)</f>
         <v>1.9800000000000002E-2</v>
       </c>
@@ -4298,7 +5770,7 @@
       <c r="B36">
         <v>22</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36">
         <f t="shared" si="2"/>
         <v>1.9599999999999999E-2</v>
       </c>
@@ -4307,7 +5779,7 @@
       <c r="B37">
         <v>23</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37">
         <f t="shared" si="2"/>
         <v>1.9400000000000001E-2</v>
       </c>
@@ -4316,7 +5788,7 @@
       <c r="B38">
         <v>24</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38">
         <f t="shared" si="2"/>
         <v>1.9200000000000002E-2</v>
       </c>
@@ -4325,7 +5797,7 @@
       <c r="B39">
         <v>25</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39">
         <f t="shared" si="2"/>
         <v>1.9E-2</v>
       </c>
@@ -4334,7 +5806,7 @@
       <c r="B40">
         <v>26</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40">
         <f t="shared" si="2"/>
         <v>1.8800000000000001E-2</v>
       </c>
@@ -4343,7 +5815,7 @@
       <c r="B41">
         <v>27</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41">
         <f t="shared" si="2"/>
         <v>1.8600000000000002E-2</v>
       </c>
@@ -4352,7 +5824,7 @@
       <c r="B42">
         <v>28</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42">
         <f t="shared" si="2"/>
         <v>1.84E-2</v>
       </c>
@@ -4361,7 +5833,7 @@
       <c r="B43">
         <v>29</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43">
         <f t="shared" si="2"/>
         <v>1.8200000000000001E-2</v>
       </c>
@@ -4370,7 +5842,7 @@
       <c r="B44">
         <v>30</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44">
         <f t="shared" si="2"/>
         <v>1.8000000000000002E-2</v>
       </c>
@@ -4379,7 +5851,7 @@
       <c r="B45">
         <v>31</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45">
         <f t="shared" si="2"/>
         <v>1.78E-2</v>
       </c>
@@ -4388,7 +5860,7 @@
       <c r="B46">
         <v>32</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46">
         <f t="shared" si="2"/>
         <v>1.7600000000000001E-2</v>
       </c>
@@ -4397,7 +5869,7 @@
       <c r="B47">
         <v>33</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47">
         <f t="shared" si="2"/>
         <v>1.7399999999999999E-2</v>
       </c>
@@ -4406,7 +5878,7 @@
       <c r="B48">
         <v>34</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48">
         <f t="shared" si="2"/>
         <v>1.72E-2</v>
       </c>
@@ -4415,7 +5887,7 @@
       <c r="B49">
         <v>35</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49">
         <f t="shared" si="2"/>
         <v>1.7000000000000001E-2</v>
       </c>
@@ -4424,7 +5896,7 @@
       <c r="B50">
         <v>36</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50">
         <f t="shared" si="2"/>
         <v>1.6799999999999999E-2</v>
       </c>
@@ -4433,7 +5905,7 @@
       <c r="B51">
         <v>37</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51">
         <f t="shared" si="2"/>
         <v>1.66E-2</v>
       </c>
@@ -4442,7 +5914,7 @@
       <c r="B52">
         <v>38</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52">
         <f t="shared" si="2"/>
         <v>1.6400000000000001E-2</v>
       </c>
@@ -4451,7 +5923,7 @@
       <c r="B53">
         <v>39</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53">
         <f t="shared" si="2"/>
         <v>1.6199999999999999E-2</v>
       </c>
@@ -4460,7 +5932,7 @@
       <c r="B54">
         <v>40</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54">
         <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
@@ -4469,7 +5941,7 @@
       <c r="B55">
         <v>41</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55">
         <f t="shared" si="2"/>
         <v>1.5800000000000002E-2</v>
       </c>
@@ -4478,7 +5950,7 @@
       <c r="B56">
         <v>42</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56">
         <f t="shared" si="2"/>
         <v>1.5600000000000001E-2</v>
       </c>
@@ -4487,7 +5959,7 @@
       <c r="B57">
         <v>43</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57">
         <f t="shared" si="2"/>
         <v>1.54E-2</v>
       </c>
@@ -4496,7 +5968,7 @@
       <c r="B58">
         <v>44</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58">
         <f t="shared" si="2"/>
         <v>1.52E-2</v>
       </c>
@@ -4505,7 +5977,7 @@
       <c r="B59">
         <v>45</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59">
         <f t="shared" si="2"/>
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4514,7 +5986,7 @@
       <c r="B60">
         <v>46</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60">
         <f t="shared" si="2"/>
         <v>1.4800000000000001E-2</v>
       </c>
@@ -4523,7 +5995,7 @@
       <c r="B61">
         <v>47</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61">
         <f t="shared" si="2"/>
         <v>1.46E-2</v>
       </c>
@@ -4532,7 +6004,7 @@
       <c r="B62">
         <v>48</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62">
         <f t="shared" si="2"/>
         <v>1.44E-2</v>
       </c>
@@ -4541,7 +6013,7 @@
       <c r="B63">
         <v>49</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63">
         <f t="shared" si="2"/>
         <v>1.4200000000000001E-2</v>
       </c>
@@ -4550,7 +6022,7 @@
       <c r="B64">
         <v>50</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64">
         <f t="shared" si="2"/>
         <v>1.4E-2</v>
       </c>
@@ -4559,7 +6031,7 @@
       <c r="B65">
         <v>51</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65">
         <f t="shared" si="2"/>
         <v>1.38E-2</v>
       </c>
@@ -4568,7 +6040,7 @@
       <c r="B66">
         <v>52</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66">
         <f t="shared" si="2"/>
         <v>1.3600000000000001E-2</v>
       </c>
@@ -4577,7 +6049,7 @@
       <c r="B67">
         <v>53</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67">
         <f t="shared" si="2"/>
         <v>1.34E-2</v>
       </c>
@@ -4586,7 +6058,7 @@
       <c r="B68">
         <v>54</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68">
         <f t="shared" si="2"/>
         <v>1.32E-2</v>
       </c>
@@ -4595,7 +6067,7 @@
       <c r="B69">
         <v>55</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69">
         <f t="shared" si="2"/>
         <v>1.2999999999999999E-2</v>
       </c>
@@ -4604,7 +6076,7 @@
       <c r="B70">
         <v>56</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70">
         <f t="shared" si="2"/>
         <v>1.2799999999999999E-2</v>
       </c>
@@ -4613,7 +6085,7 @@
       <c r="B71">
         <v>57</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71">
         <f t="shared" si="2"/>
         <v>1.26E-2</v>
       </c>
@@ -4622,7 +6094,7 @@
       <c r="B72">
         <v>58</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72">
         <f t="shared" si="2"/>
         <v>1.2400000000000001E-2</v>
       </c>
@@ -4631,7 +6103,7 @@
       <c r="B73">
         <v>59</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73">
         <f t="shared" si="2"/>
         <v>1.2200000000000001E-2</v>
       </c>
@@ -4643,7 +6115,7 @@
       <c r="B74">
         <v>60</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74">
         <f t="shared" si="2"/>
         <v>1.2E-2</v>
       </c>
@@ -4652,7 +6124,7 @@
       <c r="B75">
         <v>61</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75">
         <f>C74</f>
         <v>1.2E-2</v>
       </c>
@@ -4661,7 +6133,7 @@
       <c r="B76">
         <v>62</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76">
         <f t="shared" ref="C76:C89" si="3">C75</f>
         <v>1.2E-2</v>
       </c>
@@ -4670,7 +6142,7 @@
       <c r="B77">
         <v>63</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4679,7 +6151,7 @@
       <c r="B78">
         <v>64</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4688,7 +6160,7 @@
       <c r="B79">
         <v>65</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4697,7 +6169,7 @@
       <c r="B80">
         <v>66</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4706,7 +6178,7 @@
       <c r="B81">
         <v>67</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4715,7 +6187,7 @@
       <c r="B82">
         <v>68</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4724,7 +6196,7 @@
       <c r="B83">
         <v>69</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4733,7 +6205,7 @@
       <c r="B84">
         <v>70</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4742,7 +6214,7 @@
       <c r="B85">
         <v>71</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4751,7 +6223,7 @@
       <c r="B86">
         <v>72</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4760,7 +6232,7 @@
       <c r="B87">
         <v>73</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4769,7 +6241,7 @@
       <c r="B88">
         <v>74</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
@@ -4778,7 +6250,7 @@
       <c r="B89">
         <v>75</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>

--- a/机制构想20220621.xlsx
+++ b/机制构想20220621.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7653A812-F437-49B2-9676-761B4E46D307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59CB0E0-C0A3-4F7A-ADCC-67F0C39CBDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="476">
   <si>
     <t>规模效益：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1387,14 +1387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>核电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铀→电力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水果+盐→酱料（精食）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1487,10 +1479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盐+铁矿石+热量→肥料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>煤或燃油→电力+蓄电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1607,10 +1595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智能设备用于自动化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技工+20% 吞吐+100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1699,10 +1683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肥料→纸（文化）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纸与颜料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1738,14 +1718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>木板→帆船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重型机械→轮船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>船舶→运力+基建+商船</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1755,6 +1727,182 @@
   </si>
   <si>
     <t>船舶→肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐→纸（文化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或多或少都会积累核污染，造成死亡率上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能设备用于智能化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从简</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型机械→船舶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木板→船舶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具→陆军力量投射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型机械→陆军力量投射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电器→陆军力量投射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能设备→陆军力量投射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型机械+电器→飞机（运力与基建）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核武库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捉鱼系统？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐+铁矿石+热量→肥料（农业）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐+铁矿石+热量→炸药（矿业）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型设备+智能设备→火箭（航天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行器工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具→力量投射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型机械→力量投射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电器→力量投射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能设备→力量投射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核裂变堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能设备→电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铀+电器→电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铀+电器→氢弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢弹用于核生产方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人造太阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光点火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军队使用氢弹需要战术核武器科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民间使用氢弹需要安全核爆装置科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三相弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能设备→氢弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭→太空运力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各类太空矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太空运力→资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1856,7 +2004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1868,6 +2016,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4730,10 +4879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEB8094-8640-4AB4-ABE4-0779C618BE50}">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4743,7 +4892,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C1" t="s">
         <v>260</v>
@@ -4760,34 +4909,34 @@
         <v>294</v>
       </c>
       <c r="D2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -4795,10 +4944,10 @@
         <v>296</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -4806,13 +4955,13 @@
         <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G8" t="s">
-        <v>369</v>
+        <v>449</v>
       </c>
       <c r="K8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -4822,6 +4971,9 @@
       <c r="D9" t="s">
         <v>319</v>
       </c>
+      <c r="G9" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -4843,7 +4995,7 @@
         <v>273</v>
       </c>
       <c r="O11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -4851,13 +5003,13 @@
         <v>261</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G12" t="s">
         <v>261</v>
       </c>
       <c r="H12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K12" t="s">
         <v>276</v>
@@ -4869,7 +5021,7 @@
         <v>261</v>
       </c>
       <c r="P12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -4886,7 +5038,7 @@
         <v>272</v>
       </c>
       <c r="H13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K13" t="s">
         <v>277</v>
@@ -4895,10 +5047,10 @@
         <v>278</v>
       </c>
       <c r="O13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -4906,19 +5058,19 @@
         <v>264</v>
       </c>
       <c r="E14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K14" t="s">
         <v>274</v>
       </c>
       <c r="L14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -4926,13 +5078,13 @@
         <v>265</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K15" t="s">
         <v>275</v>
       </c>
       <c r="L15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -4954,7 +5106,7 @@
         <v>261</v>
       </c>
       <c r="D18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E18" t="s">
         <v>307</v>
@@ -4963,21 +5115,21 @@
         <v>269</v>
       </c>
       <c r="H18" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G19" t="s">
         <v>270</v>
       </c>
       <c r="H19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -4997,7 +5149,7 @@
         <v>318</v>
       </c>
       <c r="K21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -5014,10 +5166,10 @@
         <v>320</v>
       </c>
       <c r="K22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -5031,13 +5183,13 @@
         <v>264</v>
       </c>
       <c r="H23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -5051,13 +5203,13 @@
         <v>265</v>
       </c>
       <c r="H24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K24" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L24" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -5085,13 +5237,13 @@
         <v>288</v>
       </c>
       <c r="H27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K27" t="s">
         <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -5105,13 +5257,13 @@
         <v>289</v>
       </c>
       <c r="H28" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K28" t="s">
         <v>293</v>
       </c>
       <c r="L28" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -5139,18 +5291,18 @@
         <v>302</v>
       </c>
       <c r="M31" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O31" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q31" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E32" t="s">
         <v>300</v>
@@ -5159,27 +5311,27 @@
         <v>301</v>
       </c>
       <c r="K32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="O32" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K34" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O34" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -5187,53 +5339,53 @@
         <v>294</v>
       </c>
       <c r="D35" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G35" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K35" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O35" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
+        <v>411</v>
+      </c>
+      <c r="D36" t="s">
         <v>415</v>
       </c>
-      <c r="D36" t="s">
-        <v>419</v>
-      </c>
       <c r="G36" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K36" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O36" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C38" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D38" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G38" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K38" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L38" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -5241,40 +5393,40 @@
         <v>294</v>
       </c>
       <c r="D39" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G39" t="s">
         <v>294</v>
       </c>
       <c r="H39" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="K39" t="s">
         <v>294</v>
       </c>
       <c r="L39" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G40" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H40" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -5302,7 +5454,7 @@
         <v>326</v>
       </c>
       <c r="H45" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -5310,7 +5462,7 @@
         <v>327</v>
       </c>
       <c r="H46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -5321,10 +5473,10 @@
         <v>328</v>
       </c>
       <c r="K48" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L48" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
@@ -5344,7 +5496,7 @@
         <v>261</v>
       </c>
       <c r="L49" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
@@ -5358,7 +5510,7 @@
         <v>331</v>
       </c>
       <c r="H50" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -5378,7 +5530,7 @@
         <v>342</v>
       </c>
       <c r="O52" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P52" t="s">
         <v>318</v>
@@ -5395,7 +5547,7 @@
         <v>261</v>
       </c>
       <c r="H53" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K53" t="s">
         <v>261</v>
@@ -5407,7 +5559,7 @@
         <v>261</v>
       </c>
       <c r="P53" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
@@ -5421,7 +5573,7 @@
         <v>340</v>
       </c>
       <c r="O55" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
@@ -5438,10 +5590,10 @@
         <v>341</v>
       </c>
       <c r="O56" t="s">
-        <v>261</v>
+        <v>460</v>
       </c>
       <c r="P56" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
@@ -5451,6 +5603,12 @@
       <c r="D57" t="s">
         <v>336</v>
       </c>
+      <c r="O57" t="s">
+        <v>470</v>
+      </c>
+      <c r="P57" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
@@ -5459,34 +5617,176 @@
       <c r="D58" t="s">
         <v>337</v>
       </c>
+      <c r="O58" t="s">
+        <v>467</v>
+      </c>
+      <c r="P58" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O59" t="s">
+        <v>466</v>
+      </c>
+      <c r="P59" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C60" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D61" t="s">
-        <v>427</v>
+        <v>422</v>
+      </c>
+      <c r="O61" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D62" t="s">
-        <v>428</v>
+        <v>423</v>
+      </c>
+      <c r="O62" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O63" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>430</v>
+        <v>425</v>
+      </c>
+      <c r="C64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G64" t="s">
+        <v>472</v>
+      </c>
+      <c r="K64" t="s">
+        <v>474</v>
+      </c>
+      <c r="O64" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>446</v>
+      </c>
+      <c r="G65" t="s">
+        <v>473</v>
+      </c>
+      <c r="K65" t="s">
+        <v>475</v>
+      </c>
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>434</v>
+      </c>
+      <c r="D70" t="s">
+        <v>439</v>
+      </c>
+      <c r="G70" t="s">
+        <v>435</v>
+      </c>
+      <c r="K70" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>294</v>
+      </c>
+      <c r="D71" t="s">
+        <v>442</v>
+      </c>
+      <c r="G71" t="s">
+        <v>294</v>
+      </c>
+      <c r="H71" t="s">
+        <v>453</v>
+      </c>
+      <c r="K71" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>284</v>
+      </c>
+      <c r="D72" t="s">
+        <v>443</v>
+      </c>
+      <c r="G72" t="s">
+        <v>284</v>
+      </c>
+      <c r="H72" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>436</v>
+      </c>
+      <c r="D73" t="s">
+        <v>444</v>
+      </c>
+      <c r="G73" t="s">
+        <v>436</v>
+      </c>
+      <c r="H73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>438</v>
+      </c>
+      <c r="D74" t="s">
+        <v>445</v>
+      </c>
+      <c r="G74" t="s">
+        <v>438</v>
+      </c>
+      <c r="H74" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/机制构想20220621.xlsx
+++ b/机制构想20220621.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59CB0E0-C0A3-4F7A-ADCC-67F0C39CBDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20923586-0F85-4ADE-A23C-81A5E58957B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="477">
   <si>
     <t>规模效益：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1903,6 +1903,10 @@
   </si>
   <si>
     <t>太空运力→资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4881,8 +4885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEB8094-8640-4AB4-ABE4-0779C618BE50}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5638,6 +5642,9 @@
       </c>
       <c r="C60" t="s">
         <v>417</v>
+      </c>
+      <c r="I60" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">

--- a/机制构想20220621.xlsx
+++ b/机制构想20220621.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20923586-0F85-4ADE-A23C-81A5E58957B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BADB582-6526-49D6-9362-6225A90DD39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4885,7 +4885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEB8094-8640-4AB4-ABE4-0779C618BE50}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>

--- a/机制构想20220621.xlsx
+++ b/机制构想20220621.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BADB582-6526-49D6-9362-6225A90DD39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C649C6-43DD-426D-82B1-9B163D2C0BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通用经济基础" sheetId="1" r:id="rId1"/>
@@ -4885,7 +4885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEB8094-8640-4AB4-ABE4-0779C618BE50}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
@@ -5807,7 +5807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BEBED4-FE25-4469-98C6-DA85B0120032}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
       <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>

--- a/机制构想20220621.xlsx
+++ b/机制构想20220621.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C649C6-43DD-426D-82B1-9B163D2C0BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D2A66-B03D-4FDC-90F6-6693C4AE932B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5807,8 +5807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BEBED4-FE25-4469-98C6-DA85B0120032}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/机制构想20220621.xlsx
+++ b/机制构想20220621.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D2A66-B03D-4FDC-90F6-6693C4AE932B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683237EC-1DBF-41A6-B15D-014FE48015DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通用经济基础" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="479">
   <si>
     <t>规模效益：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1858,10 +1858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铀+电器→氢弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>氢弹用于核生产方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1907,6 +1903,18 @@
   </si>
   <si>
     <t>居民区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓缩铀+电器→氢弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铀精炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铀→浓缩铀+钨（贫铀）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4885,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEB8094-8640-4AB4-ABE4-0779C618BE50}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5593,6 +5601,9 @@
       <c r="H56" t="s">
         <v>341</v>
       </c>
+      <c r="K56" t="s">
+        <v>477</v>
+      </c>
       <c r="O56" t="s">
         <v>460</v>
       </c>
@@ -5607,11 +5618,14 @@
       <c r="D57" t="s">
         <v>336</v>
       </c>
+      <c r="K57" t="s">
+        <v>478</v>
+      </c>
       <c r="O57" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P57" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
@@ -5622,15 +5636,15 @@
         <v>337</v>
       </c>
       <c r="O58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P58" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P59" t="s">
         <v>462</v>
@@ -5644,7 +5658,7 @@
         <v>417</v>
       </c>
       <c r="I60" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
@@ -5655,7 +5669,7 @@
         <v>422</v>
       </c>
       <c r="O61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
@@ -5666,12 +5680,12 @@
         <v>423</v>
       </c>
       <c r="O62" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O63" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
@@ -5682,10 +5696,10 @@
         <v>452</v>
       </c>
       <c r="G64" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O64" t="s">
         <v>433</v>
@@ -5696,10 +5710,10 @@
         <v>446</v>
       </c>
       <c r="G65" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K65" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N65" s="11"/>
     </row>
@@ -5807,7 +5821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BEBED4-FE25-4469-98C6-DA85B0120032}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
